--- a/data/pca/factorExposure/factorExposure_2018-12-31.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-12-31.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,15 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +726,106 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>0.1034282971965161</v>
+        <v>0.06743196831657132</v>
       </c>
       <c r="C2">
-        <v>-0.02172851731100858</v>
+        <v>-0.03122867455647416</v>
       </c>
       <c r="D2">
-        <v>-0.06646697852094642</v>
+        <v>-0.02207536796026204</v>
       </c>
       <c r="E2">
-        <v>0.02129227635094532</v>
+        <v>-0.03762033759034356</v>
       </c>
       <c r="F2">
-        <v>0.1290313049605199</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>-0.1311306459834718</v>
+      </c>
+      <c r="G2">
+        <v>-0.06175990300048322</v>
+      </c>
+      <c r="H2">
+        <v>-0.04589519588918912</v>
+      </c>
+      <c r="I2">
+        <v>0.1126111814938402</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>0.21220476169359</v>
+        <v>0.1534814908406648</v>
       </c>
       <c r="C3">
-        <v>0.1265204083629015</v>
+        <v>-0.1054592346356514</v>
       </c>
       <c r="D3">
-        <v>-0.09848389703308941</v>
+        <v>-0.002849370092343986</v>
       </c>
       <c r="E3">
-        <v>-0.001225041016157384</v>
+        <v>0.02301958407374173</v>
       </c>
       <c r="F3">
-        <v>0.3886275814963458</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>-0.4066663256270155</v>
+      </c>
+      <c r="G3">
+        <v>-0.2723236193186599</v>
+      </c>
+      <c r="H3">
+        <v>-0.04534248240704231</v>
+      </c>
+      <c r="I3">
+        <v>0.3662386374530192</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>0.09209103438568622</v>
+        <v>0.06921081035120404</v>
       </c>
       <c r="C4">
-        <v>0.01911528639536022</v>
+        <v>-0.0506500818777007</v>
       </c>
       <c r="D4">
-        <v>-0.06316525658887463</v>
+        <v>0.01238236842300168</v>
       </c>
       <c r="E4">
-        <v>-0.02995703034745587</v>
+        <v>-0.03833939561036591</v>
       </c>
       <c r="F4">
-        <v>0.07275455999068307</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>-0.07999546991188299</v>
+      </c>
+      <c r="G4">
+        <v>-0.03061263690128932</v>
+      </c>
+      <c r="H4">
+        <v>-0.04031147959790408</v>
+      </c>
+      <c r="I4">
+        <v>0.06008922497423982</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +842,280 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.0259869371931766</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>-0.01178127049501285</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.003400795506525385</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>-0.005690806670973622</v>
       </c>
       <c r="F6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>-0.006427851897828791</v>
+      </c>
+      <c r="G6">
+        <v>0.02388286037435429</v>
+      </c>
+      <c r="H6">
+        <v>0.01423795249165084</v>
+      </c>
+      <c r="I6">
+        <v>0.002952078769092608</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>0.0424383224951472</v>
+        <v>0.03376761726438841</v>
       </c>
       <c r="C7">
-        <v>-0.001006142404652593</v>
+        <v>-0.02127286696178127</v>
       </c>
       <c r="D7">
-        <v>-0.04642045817433837</v>
+        <v>0.03522772722733308</v>
       </c>
       <c r="E7">
-        <v>0.004332864990815871</v>
+        <v>-0.02681235352166899</v>
       </c>
       <c r="F7">
-        <v>0.07537820264696263</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>-0.05191075989918167</v>
+      </c>
+      <c r="G7">
+        <v>-0.05047176776887234</v>
+      </c>
+      <c r="H7">
+        <v>0.01213371660380237</v>
+      </c>
+      <c r="I7">
+        <v>0.03408045909954947</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>0.05434594015903309</v>
+        <v>0.02557954763689135</v>
       </c>
       <c r="C8">
-        <v>0.04207758790616846</v>
+        <v>-0.05310245448806769</v>
       </c>
       <c r="D8">
-        <v>-0.04639523088585023</v>
+        <v>0.008647512930353821</v>
       </c>
       <c r="E8">
-        <v>-0.02445093340659697</v>
+        <v>-0.01618398097339964</v>
       </c>
       <c r="F8">
-        <v>0.07349159662591144</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>-0.07677082291237751</v>
+      </c>
+      <c r="G8">
+        <v>-0.04999654806398077</v>
+      </c>
+      <c r="H8">
+        <v>-0.0280133135413337</v>
+      </c>
+      <c r="I8">
+        <v>0.06328802988174183</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>0.07686619627819287</v>
+        <v>0.05818143690802432</v>
       </c>
       <c r="C9">
-        <v>0.007742145189482714</v>
+        <v>-0.04363868291618834</v>
       </c>
       <c r="D9">
-        <v>-0.06043428458665378</v>
+        <v>0.01536196473319173</v>
       </c>
       <c r="E9">
-        <v>-0.04337646219257191</v>
+        <v>-0.03377869207992491</v>
       </c>
       <c r="F9">
-        <v>0.05882364824143862</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>-0.08066229805770174</v>
+      </c>
+      <c r="G9">
+        <v>-0.02738996529686586</v>
+      </c>
+      <c r="H9">
+        <v>-0.03773100856310464</v>
+      </c>
+      <c r="I9">
+        <v>0.03559966112190135</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>0.03526526074105929</v>
+        <v>0.04284302195690024</v>
       </c>
       <c r="C10">
-        <v>-0.12108599534895</v>
+        <v>0.1648687017527685</v>
       </c>
       <c r="D10">
-        <v>0.1054507096645354</v>
+        <v>-0.00473035658531746</v>
       </c>
       <c r="E10">
-        <v>0.04096153828029162</v>
+        <v>0.02447653605647282</v>
       </c>
       <c r="F10">
-        <v>0.06795223433366117</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>-0.06585933914929293</v>
+      </c>
+      <c r="G10">
+        <v>-0.02871399223610007</v>
+      </c>
+      <c r="H10">
+        <v>-0.03372941092519921</v>
+      </c>
+      <c r="I10">
+        <v>0.03449933018045643</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>0.0564080866845101</v>
+        <v>0.04685789834060215</v>
       </c>
       <c r="C11">
-        <v>0.01216512242147878</v>
+        <v>-0.03326198618412811</v>
       </c>
       <c r="D11">
-        <v>-0.01857420488826231</v>
+        <v>-0.007549980719036209</v>
       </c>
       <c r="E11">
-        <v>0.006351227167431138</v>
+        <v>-0.007565025599613767</v>
       </c>
       <c r="F11">
-        <v>0.04736642396474411</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>-0.03915828248972587</v>
+      </c>
+      <c r="G11">
+        <v>-0.001795242643895565</v>
+      </c>
+      <c r="H11">
+        <v>-0.01221034906697569</v>
+      </c>
+      <c r="I11">
+        <v>0.03486573150897293</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>0.04515057053571852</v>
+        <v>0.04259558918732774</v>
       </c>
       <c r="C12">
-        <v>0.01496618627622175</v>
+        <v>-0.03206831670910306</v>
       </c>
       <c r="D12">
-        <v>-0.01747303966974563</v>
+        <v>0.004237357478982277</v>
       </c>
       <c r="E12">
-        <v>-0.01124267744159042</v>
+        <v>-0.008293464739233159</v>
       </c>
       <c r="F12">
-        <v>0.0348040868131167</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>-0.01570187171682622</v>
+      </c>
+      <c r="G12">
+        <v>-0.003277941434898889</v>
+      </c>
+      <c r="H12">
+        <v>-0.004376594003985761</v>
+      </c>
+      <c r="I12">
+        <v>0.02114650774047007</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>0.05764372514860761</v>
+        <v>0.04128706781072813</v>
       </c>
       <c r="C13">
-        <v>0.01170585018381722</v>
+        <v>-0.02626130793994019</v>
       </c>
       <c r="D13">
-        <v>-0.03016066722565911</v>
+        <v>-0.01699109519645576</v>
       </c>
       <c r="E13">
-        <v>0.0306178394283063</v>
+        <v>-0.008406339456583147</v>
       </c>
       <c r="F13">
-        <v>0.1104658671983813</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>-0.1019397561429172</v>
+      </c>
+      <c r="G13">
+        <v>-0.03627982137011612</v>
+      </c>
+      <c r="H13">
+        <v>-0.02630454726612914</v>
+      </c>
+      <c r="I13">
+        <v>0.06786609800806905</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>0.03264140293392226</v>
+        <v>0.02526802549333111</v>
       </c>
       <c r="C14">
-        <v>0.006018054671357492</v>
+        <v>-0.02403581980488799</v>
       </c>
       <c r="D14">
-        <v>-0.04408817282387481</v>
+        <v>0.004397433197425355</v>
       </c>
       <c r="E14">
-        <v>-0.005189491639058305</v>
+        <v>-0.02803905476099085</v>
       </c>
       <c r="F14">
-        <v>0.02980485892434772</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>-0.04048280529935396</v>
+      </c>
+      <c r="G14">
+        <v>-0.05583544610844803</v>
+      </c>
+      <c r="H14">
+        <v>-0.005042742488572436</v>
+      </c>
+      <c r="I14">
+        <v>0.01298867098931448</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1132,48 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>0.04806014580755617</v>
+        <v>0.04072747238106855</v>
       </c>
       <c r="C16">
-        <v>0.0196968410766664</v>
+        <v>-0.03532819052506673</v>
       </c>
       <c r="D16">
-        <v>-0.01631468878230427</v>
+        <v>-0.001974749280051627</v>
       </c>
       <c r="E16">
-        <v>0.001150382205567582</v>
+        <v>-0.005014805313510866</v>
       </c>
       <c r="F16">
-        <v>0.03846098001512811</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>-0.03507493758803743</v>
+      </c>
+      <c r="G16">
+        <v>-0.007255754914882219</v>
+      </c>
+      <c r="H16">
+        <v>-0.004186847057059223</v>
+      </c>
+      <c r="I16">
+        <v>0.03598926223684427</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1190,19 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1219,106 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>0.06630509005155311</v>
+        <v>0.05286030190055687</v>
       </c>
       <c r="C19">
-        <v>0.03654044101255598</v>
+        <v>-0.04739788723751482</v>
       </c>
       <c r="D19">
-        <v>-0.03783198407991319</v>
+        <v>-0.006461041084989012</v>
       </c>
       <c r="E19">
-        <v>0.003891717096848954</v>
+        <v>-0.01405782410821845</v>
       </c>
       <c r="F19">
-        <v>0.1020755416184105</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>-0.1000142505222005</v>
+      </c>
+      <c r="G19">
+        <v>-0.05132985866733712</v>
+      </c>
+      <c r="H19">
+        <v>-0.01363614848490356</v>
+      </c>
+      <c r="I19">
+        <v>0.07328021860205096</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>0.03209303541997421</v>
+        <v>0.0193258788746019</v>
       </c>
       <c r="C20">
-        <v>0.0136815931596721</v>
+        <v>-0.02938363619630802</v>
       </c>
       <c r="D20">
-        <v>-0.05022274606877695</v>
+        <v>0.003295966927442254</v>
       </c>
       <c r="E20">
-        <v>-0.01793962945758604</v>
+        <v>-0.02056631651027411</v>
       </c>
       <c r="F20">
-        <v>0.07167955131912937</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>-0.06506684079841736</v>
+      </c>
+      <c r="G20">
+        <v>-0.06596349939337302</v>
+      </c>
+      <c r="H20">
+        <v>0.002375413933110405</v>
+      </c>
+      <c r="I20">
+        <v>0.06856755658573085</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>0.03364041413239757</v>
+        <v>0.03374580245895761</v>
       </c>
       <c r="C21">
-        <v>0.03011902027178459</v>
+        <v>-0.02844636559823545</v>
       </c>
       <c r="D21">
-        <v>-0.02755830176153429</v>
+        <v>0.009267753472476799</v>
       </c>
       <c r="E21">
-        <v>0.008374423388540858</v>
+        <v>-0.00430569013306261</v>
       </c>
       <c r="F21">
-        <v>0.0967469965279119</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>-0.07667064202133743</v>
+      </c>
+      <c r="G21">
+        <v>-0.01560009028614289</v>
+      </c>
+      <c r="H21">
+        <v>-0.05045071294461893</v>
+      </c>
+      <c r="I21">
+        <v>0.007287081732603406</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1335,19 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,230 +1364,338 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>0.04752231213558624</v>
+        <v>0.03951431863160432</v>
       </c>
       <c r="C24">
-        <v>0.01438368615533116</v>
+        <v>-0.03114994690266314</v>
       </c>
       <c r="D24">
-        <v>-0.0210104933597233</v>
+        <v>-0.001549062283097397</v>
       </c>
       <c r="E24">
-        <v>-0.002484083370955234</v>
+        <v>-0.007961921927220122</v>
       </c>
       <c r="F24">
-        <v>0.04944187801010864</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>-0.03810252992249955</v>
+      </c>
+      <c r="G24">
+        <v>-0.002116995961769317</v>
+      </c>
+      <c r="H24">
+        <v>-0.007228933258752092</v>
+      </c>
+      <c r="I24">
+        <v>0.03850180816011499</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>0.04917602806468711</v>
+        <v>0.0463332211794745</v>
       </c>
       <c r="C25">
-        <v>0.01181560406979883</v>
+        <v>-0.02773152764863068</v>
       </c>
       <c r="D25">
-        <v>-0.01829704472705198</v>
+        <v>-0.002258343327526573</v>
       </c>
       <c r="E25">
-        <v>-0.001790709562021918</v>
+        <v>-0.007526100307944872</v>
       </c>
       <c r="F25">
-        <v>0.04423098246288591</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>-0.04452308370787753</v>
+      </c>
+      <c r="G25">
+        <v>0.002756588195302103</v>
+      </c>
+      <c r="H25">
+        <v>-0.01360232553891174</v>
+      </c>
+      <c r="I25">
+        <v>0.02953831826771734</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>0.02803653157189688</v>
+        <v>0.01520347974934991</v>
       </c>
       <c r="C26">
-        <v>0.02618310901407519</v>
+        <v>-0.03146053922782575</v>
       </c>
       <c r="D26">
-        <v>-0.03517818583149599</v>
+        <v>-0.006289293458560774</v>
       </c>
       <c r="E26">
-        <v>0.01999588528895115</v>
+        <v>-0.0008188788996055747</v>
       </c>
       <c r="F26">
-        <v>0.0401714322337537</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>-0.04805030165941373</v>
+      </c>
+      <c r="G26">
+        <v>-0.03023550552100849</v>
+      </c>
+      <c r="H26">
+        <v>-0.006664302255689527</v>
+      </c>
+      <c r="I26">
+        <v>0.03277858881495978</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B27">
-        <v>0.117913472514023</v>
+        <v>0.06929499633131933</v>
       </c>
       <c r="C27">
-        <v>-0.004086662553169135</v>
+        <v>-0.02451061005931624</v>
       </c>
       <c r="D27">
-        <v>-0.04626789392691737</v>
+        <v>0.0009993715636638237</v>
       </c>
       <c r="E27">
-        <v>-0.024131831297112</v>
+        <v>-0.02916951805490335</v>
       </c>
       <c r="F27">
-        <v>0.06659781164492054</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>-0.05609258798931992</v>
+      </c>
+      <c r="G27">
+        <v>-0.03306138333014329</v>
+      </c>
+      <c r="H27">
+        <v>-0.01721387789143457</v>
+      </c>
+      <c r="I27">
+        <v>0.02754114434956378</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>0.0377126153836899</v>
+        <v>0.05826181716282295</v>
       </c>
       <c r="C28">
-        <v>-0.1789757121300154</v>
+        <v>0.2502922059794667</v>
       </c>
       <c r="D28">
-        <v>0.1727561482668806</v>
+        <v>0.00244655455088375</v>
       </c>
       <c r="E28">
-        <v>0.04060332176408387</v>
+        <v>0.03853984060980374</v>
       </c>
       <c r="F28">
-        <v>0.03648049608257056</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>-0.05186364802929214</v>
+      </c>
+      <c r="G28">
+        <v>-0.05348651841788921</v>
+      </c>
+      <c r="H28">
+        <v>-0.02802078586190478</v>
+      </c>
+      <c r="I28">
+        <v>0.05237034871100035</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>0.0309279220163312</v>
+        <v>0.02351330575046505</v>
       </c>
       <c r="C29">
-        <v>0.006656935631119253</v>
+        <v>-0.02298239962933911</v>
       </c>
       <c r="D29">
-        <v>-0.04224081986648968</v>
+        <v>0.007507936668672625</v>
       </c>
       <c r="E29">
-        <v>-0.01643597965702551</v>
+        <v>-0.02967542254210628</v>
       </c>
       <c r="F29">
-        <v>0.02670164492268933</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>-0.03699217175326926</v>
+      </c>
+      <c r="G29">
+        <v>-0.05562854438929116</v>
+      </c>
+      <c r="H29">
+        <v>-0.009437724455793143</v>
+      </c>
+      <c r="I29">
+        <v>-0.003276906688996841</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>0.1107462441647178</v>
+        <v>0.08712534911134298</v>
       </c>
       <c r="C30">
-        <v>-0.004071661703333852</v>
+        <v>-0.05069955936259875</v>
       </c>
       <c r="D30">
-        <v>-0.05655503135221974</v>
+        <v>-0.0418221967692591</v>
       </c>
       <c r="E30">
-        <v>0.005663374989078647</v>
+        <v>-0.03287473623322441</v>
       </c>
       <c r="F30">
-        <v>0.104690174882481</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>-0.1036095486286588</v>
+      </c>
+      <c r="G30">
+        <v>-0.003476470551711981</v>
+      </c>
+      <c r="H30">
+        <v>0.007395360647562319</v>
+      </c>
+      <c r="I30">
+        <v>0.02430590165442817</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>0.06556129617489401</v>
+        <v>0.059922036251652</v>
       </c>
       <c r="C31">
-        <v>0.006210641669821869</v>
+        <v>-0.02412395764231649</v>
       </c>
       <c r="D31">
-        <v>-0.03702609795919209</v>
+        <v>-0.01127975895662965</v>
       </c>
       <c r="E31">
-        <v>0.03261343630771187</v>
+        <v>-0.02277544645433136</v>
       </c>
       <c r="F31">
-        <v>-0.02376838040301917</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>-0.001130392418134538</v>
+      </c>
+      <c r="G31">
+        <v>-0.04911786911148079</v>
+      </c>
+      <c r="H31">
+        <v>-0.03083869951928946</v>
+      </c>
+      <c r="I31">
+        <v>0.01093246587702991</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>0.06715256298083692</v>
+        <v>0.03951026193611363</v>
       </c>
       <c r="C32">
-        <v>0.02262375326094384</v>
+        <v>-0.04514037303443609</v>
       </c>
       <c r="D32">
-        <v>-0.04505285534609341</v>
+        <v>0.01380037514696123</v>
       </c>
       <c r="E32">
-        <v>-0.0127111284438116</v>
+        <v>-0.03206701942778392</v>
       </c>
       <c r="F32">
-        <v>0.1000367787949732</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>-0.08369232134893541</v>
+      </c>
+      <c r="G32">
+        <v>-0.03567292130077718</v>
+      </c>
+      <c r="H32">
+        <v>-0.02092771250846603</v>
+      </c>
+      <c r="I32">
+        <v>0.05787668485250896</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>0.0661243165409469</v>
+        <v>0.05253690201330385</v>
       </c>
       <c r="C33">
-        <v>0.0402920287576115</v>
+        <v>-0.05512359496918609</v>
       </c>
       <c r="D33">
-        <v>-0.05711707809008195</v>
+        <v>-0.02242738931012529</v>
       </c>
       <c r="E33">
-        <v>0.01266220604041677</v>
+        <v>-0.005601570091973541</v>
       </c>
       <c r="F33">
-        <v>0.07040985312522111</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>-0.07675818423434755</v>
+      </c>
+      <c r="G33">
+        <v>-0.04454958222633545</v>
+      </c>
+      <c r="H33">
+        <v>-0.02829037887481866</v>
+      </c>
+      <c r="I33">
+        <v>0.03591332582064002</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>0.04763633748376098</v>
+        <v>0.04124435892035028</v>
       </c>
       <c r="C34">
-        <v>0.0119542563600233</v>
+        <v>-0.03609057411193975</v>
       </c>
       <c r="D34">
-        <v>-0.02596570512128052</v>
+        <v>0.002980576569684393</v>
       </c>
       <c r="E34">
-        <v>-0.003533124020107556</v>
+        <v>-0.01589489991069378</v>
       </c>
       <c r="F34">
-        <v>0.03747678596182808</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>-0.03741086802722907</v>
+      </c>
+      <c r="G34">
+        <v>-0.0004086151502859354</v>
+      </c>
+      <c r="H34">
+        <v>-0.009169814250606133</v>
+      </c>
+      <c r="I34">
+        <v>0.03272992510879332</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1712,48 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>0.01959727117430104</v>
+        <v>0.0167374651356045</v>
       </c>
       <c r="C36">
-        <v>-0.0008873487393191413</v>
+        <v>-0.006700756962532146</v>
       </c>
       <c r="D36">
-        <v>-0.0148803279765884</v>
+        <v>0.002975148374168075</v>
       </c>
       <c r="E36">
-        <v>-0.003567023589116934</v>
+        <v>-0.01051823774224117</v>
       </c>
       <c r="F36">
-        <v>0.02314225648969568</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>-0.02777667115060572</v>
+      </c>
+      <c r="G36">
+        <v>-0.03550627711415726</v>
+      </c>
+      <c r="H36">
+        <v>-0.01837961137938529</v>
+      </c>
+      <c r="I36">
+        <v>-0.01146337932381061</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1770,222 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>0.04285401414432297</v>
+        <v>0.0351595778344781</v>
       </c>
       <c r="C38">
-        <v>0.003443234792241164</v>
+        <v>-0.01572950993812109</v>
       </c>
       <c r="D38">
-        <v>-0.01952488696283027</v>
+        <v>0.002667943216166245</v>
       </c>
       <c r="E38">
-        <v>-0.0172574226942657</v>
+        <v>-0.007813716861841858</v>
       </c>
       <c r="F38">
-        <v>0.02965512858200181</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>-0.05402082170493828</v>
+      </c>
+      <c r="G38">
+        <v>-0.01987599396800315</v>
+      </c>
+      <c r="H38">
+        <v>-0.0279513604395237</v>
+      </c>
+      <c r="I38">
+        <v>-0.004493386664121439</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>0.06999279297021317</v>
+        <v>0.05252153023196653</v>
       </c>
       <c r="C39">
-        <v>0.0110399299434852</v>
+        <v>-0.04879671290302878</v>
       </c>
       <c r="D39">
-        <v>-0.02749717144854215</v>
+        <v>-0.00771865826742836</v>
       </c>
       <c r="E39">
-        <v>0.01390051302892446</v>
+        <v>-0.01723587969543131</v>
       </c>
       <c r="F39">
-        <v>0.03850729191265193</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>-0.05642574722983061</v>
+      </c>
+      <c r="G39">
+        <v>0.006332434911917063</v>
+      </c>
+      <c r="H39">
+        <v>-0.02423030131915126</v>
+      </c>
+      <c r="I39">
+        <v>0.0172816551644282</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>0.07258164980626464</v>
+        <v>0.05443672508864485</v>
       </c>
       <c r="C40">
-        <v>-0.001993044450617754</v>
+        <v>-0.04254533479815813</v>
       </c>
       <c r="D40">
-        <v>-0.06062056790881504</v>
+        <v>-0.02422867527794857</v>
       </c>
       <c r="E40">
-        <v>0.03630824204853392</v>
+        <v>-0.02362422355716878</v>
       </c>
       <c r="F40">
-        <v>0.1078570593725451</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>-0.0918295520164127</v>
+      </c>
+      <c r="G40">
+        <v>-0.04147879657291519</v>
+      </c>
+      <c r="H40">
+        <v>-0.02263740088669613</v>
+      </c>
+      <c r="I40">
+        <v>0.1154107280276181</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>0.003313407537582149</v>
+        <v>0.005123031702353367</v>
       </c>
       <c r="C41">
-        <v>0.01359381232206795</v>
+        <v>-0.01198344518807951</v>
       </c>
       <c r="D41">
-        <v>-0.03614953351068658</v>
+        <v>-0.001336762382738194</v>
       </c>
       <c r="E41">
-        <v>-0.005668297260755783</v>
+        <v>-0.01169953326484817</v>
       </c>
       <c r="F41">
-        <v>-0.004606188389546718</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>-0.01215344420040853</v>
+      </c>
+      <c r="G41">
+        <v>-0.05341575102454567</v>
+      </c>
+      <c r="H41">
+        <v>-0.03100303351414563</v>
+      </c>
+      <c r="I41">
+        <v>0.004159704893415719</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B42">
-        <v>0.1833563562949954</v>
+        <v>0.2024373033688306</v>
       </c>
       <c r="C42">
-        <v>0.7267259250697863</v>
+        <v>-0.2158096667726182</v>
       </c>
       <c r="D42">
-        <v>0.5769028211803382</v>
+        <v>-0.05227476244662296</v>
       </c>
       <c r="E42">
-        <v>0.2345179629831903</v>
+        <v>0.9222270487260039</v>
       </c>
       <c r="F42">
-        <v>-0.06379484670458273</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>0.1654650309687326</v>
+      </c>
+      <c r="G42">
+        <v>-0.01021105275549177</v>
+      </c>
+      <c r="H42">
+        <v>0.008971046342011527</v>
+      </c>
+      <c r="I42">
+        <v>0.04682489662498405</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>0.006933713558192618</v>
+        <v>0.008974413647822617</v>
       </c>
       <c r="C43">
-        <v>0.01584596281634488</v>
+        <v>-0.01384092029605095</v>
       </c>
       <c r="D43">
-        <v>-0.03682606139904</v>
+        <v>-0.004379765149394368</v>
       </c>
       <c r="E43">
-        <v>-0.0005617799660284312</v>
+        <v>-0.01000589584371549</v>
       </c>
       <c r="F43">
-        <v>0.02627858277605504</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>-0.02449900996222031</v>
+      </c>
+      <c r="G43">
+        <v>-0.04053716265512727</v>
+      </c>
+      <c r="H43">
+        <v>-0.01543862690528531</v>
+      </c>
+      <c r="I43">
+        <v>0.01326981442977279</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>0.04288058006669364</v>
+        <v>0.02729166161341749</v>
       </c>
       <c r="C44">
-        <v>0.02888835892075378</v>
+        <v>-0.04110501644282046</v>
       </c>
       <c r="D44">
-        <v>-0.05393976304325632</v>
+        <v>-0.000847644502772079</v>
       </c>
       <c r="E44">
-        <v>0.006987671963528889</v>
+        <v>-0.01269171287864138</v>
       </c>
       <c r="F44">
-        <v>0.122645713605269</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>-0.1228117525389606</v>
+      </c>
+      <c r="G44">
+        <v>-0.09120489501012678</v>
+      </c>
+      <c r="H44">
+        <v>-0.04024063907644655</v>
+      </c>
+      <c r="I44">
+        <v>0.05392551002283644</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +2002,106 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>0.03572961987062754</v>
+        <v>0.02731013680745659</v>
       </c>
       <c r="C46">
-        <v>0.01525892177852281</v>
+        <v>-0.03852877934421296</v>
       </c>
       <c r="D46">
-        <v>-0.04531544824195286</v>
+        <v>-0.0065045715686195</v>
       </c>
       <c r="E46">
-        <v>0.001157727781386342</v>
+        <v>-0.02983654379176986</v>
       </c>
       <c r="F46">
-        <v>0.01937772499533751</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>-0.04985038008674888</v>
+      </c>
+      <c r="G46">
+        <v>-0.05577506037278328</v>
+      </c>
+      <c r="H46">
+        <v>-0.01100242802756317</v>
+      </c>
+      <c r="I46">
+        <v>0.002288103878658441</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>0.09258155083983509</v>
+        <v>0.08660961229864898</v>
       </c>
       <c r="C47">
-        <v>0.003779790396912248</v>
+        <v>-0.02514281908398865</v>
       </c>
       <c r="D47">
-        <v>-0.03738912389364324</v>
+        <v>-0.006099619929363974</v>
       </c>
       <c r="E47">
-        <v>-0.003022480033028827</v>
+        <v>-0.02661560085777568</v>
       </c>
       <c r="F47">
-        <v>-0.01751199937301907</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>0.0148722710523168</v>
+      </c>
+      <c r="G47">
+        <v>-0.07270939402562913</v>
+      </c>
+      <c r="H47">
+        <v>-0.01678456753027197</v>
+      </c>
+      <c r="I47">
+        <v>0.02369382834546986</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>0.02137276451913616</v>
+        <v>0.02152496162088708</v>
       </c>
       <c r="C48">
-        <v>0.00918576068529937</v>
+        <v>-0.01917054760117894</v>
       </c>
       <c r="D48">
-        <v>-0.03264743180314576</v>
+        <v>-0.0003938924467447757</v>
       </c>
       <c r="E48">
-        <v>-0.000483663502591838</v>
+        <v>-0.01410269377229779</v>
       </c>
       <c r="F48">
-        <v>0.02822047535285221</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>-0.02879474180427948</v>
+      </c>
+      <c r="G48">
+        <v>-0.02502040090611185</v>
+      </c>
+      <c r="H48">
+        <v>-0.01322978482555204</v>
+      </c>
+      <c r="I48">
+        <v>0.007572694212709314</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +2118,77 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>0.09126642701299136</v>
+        <v>0.08771838510885158</v>
       </c>
       <c r="C50">
-        <v>0.02041033185932186</v>
+        <v>-0.0455492935757578</v>
       </c>
       <c r="D50">
-        <v>-0.04478596277759914</v>
+        <v>0.007205023848071186</v>
       </c>
       <c r="E50">
-        <v>0.007351203229296185</v>
+        <v>-0.02233163165356148</v>
       </c>
       <c r="F50">
-        <v>-0.02715747734346325</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>0.00864552455089607</v>
+      </c>
+      <c r="G50">
+        <v>-0.03958781511624492</v>
+      </c>
+      <c r="H50">
+        <v>0.01457477217916238</v>
+      </c>
+      <c r="I50">
+        <v>-0.0124031216579876</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>0.05771717843685123</v>
+        <v>0.04031124198965493</v>
       </c>
       <c r="C51">
-        <v>-0.01748375730879792</v>
+        <v>0.006364125030161966</v>
       </c>
       <c r="D51">
-        <v>-0.01540829368890003</v>
+        <v>-0.0126706875613551</v>
       </c>
       <c r="E51">
-        <v>0.03664525281328298</v>
+        <v>-0.01159569221656415</v>
       </c>
       <c r="F51">
-        <v>0.050568780021933</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>-0.08587180562315008</v>
+      </c>
+      <c r="G51">
+        <v>-0.07052113406573059</v>
+      </c>
+      <c r="H51">
+        <v>-0.04325103348638859</v>
+      </c>
+      <c r="I51">
+        <v>0.02975979130376583</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +2205,280 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>0.1334150072177566</v>
+        <v>0.1235738196777899</v>
       </c>
       <c r="C53">
-        <v>-0.001979660367317585</v>
+        <v>-0.04435277525101219</v>
       </c>
       <c r="D53">
-        <v>-0.06217894896918066</v>
+        <v>-0.008535956023892573</v>
       </c>
       <c r="E53">
-        <v>0.006848427135452828</v>
+        <v>-0.05049153333624536</v>
       </c>
       <c r="F53">
-        <v>-0.06649271640010083</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>0.05171879822852435</v>
+      </c>
+      <c r="G53">
+        <v>-0.03084932378474356</v>
+      </c>
+      <c r="H53">
+        <v>-0.0180093120600978</v>
+      </c>
+      <c r="I53">
+        <v>0.02958206375671693</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>0.02775732922064689</v>
+        <v>0.02697637136308369</v>
       </c>
       <c r="C54">
-        <v>-0.006943354296549583</v>
+        <v>-0.009386750274873328</v>
       </c>
       <c r="D54">
-        <v>-0.03457515477508458</v>
+        <v>0.003414217543722345</v>
       </c>
       <c r="E54">
-        <v>-0.008160625818548276</v>
+        <v>-0.03033407849800537</v>
       </c>
       <c r="F54">
-        <v>0.03638140770276121</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>-0.03627224988432491</v>
+      </c>
+      <c r="G54">
+        <v>-0.05633804151504818</v>
+      </c>
+      <c r="H54">
+        <v>-0.02242644392060928</v>
+      </c>
+      <c r="I54">
+        <v>-0.005637847975737681</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>0.1066046235211527</v>
+        <v>0.09748560060484866</v>
       </c>
       <c r="C55">
-        <v>-0.006763860103054069</v>
+        <v>-0.03750528851836021</v>
       </c>
       <c r="D55">
-        <v>-0.02671095639826683</v>
+        <v>0.009910862279518521</v>
       </c>
       <c r="E55">
-        <v>-0.03822575227282797</v>
+        <v>-0.03515653443458541</v>
       </c>
       <c r="F55">
-        <v>-0.02933543006211397</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>0.04105859370397643</v>
+      </c>
+      <c r="G55">
+        <v>-0.03918501177620917</v>
+      </c>
+      <c r="H55">
+        <v>0.02070910293579548</v>
+      </c>
+      <c r="I55">
+        <v>0.004556641745682862</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>0.1701775088448901</v>
+        <v>0.1649808855327805</v>
       </c>
       <c r="C56">
-        <v>-0.05196784086022988</v>
+        <v>-0.03307823391873266</v>
       </c>
       <c r="D56">
-        <v>-0.06766081028659161</v>
+        <v>-0.005118227335236774</v>
       </c>
       <c r="E56">
-        <v>-0.02389050172860848</v>
+        <v>-0.08506349797253814</v>
       </c>
       <c r="F56">
-        <v>-0.1043438434249916</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>0.09565355764476459</v>
+      </c>
+      <c r="G56">
+        <v>0.01735003758266217</v>
+      </c>
+      <c r="H56">
+        <v>0.01427397586981179</v>
+      </c>
+      <c r="I56">
+        <v>0.03280173223931292</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B57">
-        <v>0.07554858151331033</v>
+        <v>0.06059123458107601</v>
       </c>
       <c r="C57">
-        <v>0.01108766903543458</v>
+        <v>-0.02755049398289728</v>
       </c>
       <c r="D57">
-        <v>-0.03882461887151775</v>
+        <v>-0.02270587397880147</v>
       </c>
       <c r="E57">
-        <v>0.03191463379618994</v>
+        <v>-0.004391317537704286</v>
       </c>
       <c r="F57">
-        <v>0.05439760328969547</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>-0.06997964202536294</v>
+      </c>
+      <c r="G57">
+        <v>-0.01634499776038322</v>
+      </c>
+      <c r="H57">
+        <v>-0.01296611783544348</v>
+      </c>
+      <c r="I57">
+        <v>0.02467960458404568</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>0.2003687754172435</v>
+        <v>0.2016682816665101</v>
       </c>
       <c r="C58">
-        <v>0.04224703766477363</v>
+        <v>-0.1157556118663659</v>
       </c>
       <c r="D58">
-        <v>-0.07260725697348601</v>
+        <v>-0.09846493060518975</v>
       </c>
       <c r="E58">
-        <v>0.04529917141352305</v>
+        <v>0.03664336488314675</v>
       </c>
       <c r="F58">
-        <v>0.213320192802966</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>-0.354668680000239</v>
+      </c>
+      <c r="G58">
+        <v>-0.2201241465252147</v>
+      </c>
+      <c r="H58">
+        <v>0.3335285186180429</v>
+      </c>
+      <c r="I58">
+        <v>-0.7494042819631962</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>0.03517603962633403</v>
+        <v>0.05865865262766443</v>
       </c>
       <c r="C59">
-        <v>-0.1613509526557054</v>
+        <v>0.2062668375105242</v>
       </c>
       <c r="D59">
-        <v>0.117109368446185</v>
+        <v>-0.01488179185634349</v>
       </c>
       <c r="E59">
-        <v>0.03047557347791379</v>
+        <v>0.008393956072610145</v>
       </c>
       <c r="F59">
-        <v>0.04396730784068335</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>-0.06311298678753918</v>
+      </c>
+      <c r="G59">
+        <v>0.002264180366533317</v>
+      </c>
+      <c r="H59">
+        <v>-0.01503702712792078</v>
+      </c>
+      <c r="I59">
+        <v>0.00640944723479503</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>0.1837016995781901</v>
+        <v>0.1934057939439014</v>
       </c>
       <c r="C60">
-        <v>-0.07103365128393421</v>
+        <v>0.05580532124990459</v>
       </c>
       <c r="D60">
-        <v>0.0195327646824612</v>
+        <v>-0.05218826745487536</v>
       </c>
       <c r="E60">
-        <v>0.08399617014338916</v>
+        <v>-0.01149695241237816</v>
       </c>
       <c r="F60">
-        <v>0.1283880791495352</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>-0.1650241852155771</v>
+      </c>
+      <c r="G60">
+        <v>0.3497402198381323</v>
+      </c>
+      <c r="H60">
+        <v>-0.06244459072848986</v>
+      </c>
+      <c r="I60">
+        <v>0.03371054229241566</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>0.03976905119963156</v>
+        <v>0.0385207776141994</v>
       </c>
       <c r="C61">
-        <v>0.009874516999040284</v>
+        <v>-0.03393207148992156</v>
       </c>
       <c r="D61">
-        <v>-0.01505084227450668</v>
+        <v>0.0002385035248719648</v>
       </c>
       <c r="E61">
-        <v>-0.004747537841117595</v>
+        <v>-0.01071117931419749</v>
       </c>
       <c r="F61">
-        <v>0.03999234274861659</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>-0.03781499291639968</v>
+      </c>
+      <c r="G61">
+        <v>0.01218733301856123</v>
+      </c>
+      <c r="H61">
+        <v>-0.01480949044503132</v>
+      </c>
+      <c r="I61">
+        <v>0.006576084388402993</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2495,222 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>0.03759988033957441</v>
+        <v>0.02916878440049173</v>
       </c>
       <c r="C63">
-        <v>0.003776547562516884</v>
+        <v>-0.02461191394684748</v>
       </c>
       <c r="D63">
-        <v>-0.03002001536938404</v>
+        <v>-0.001862844909451035</v>
       </c>
       <c r="E63">
-        <v>0.003703905592358873</v>
+        <v>-0.0167887672281131</v>
       </c>
       <c r="F63">
-        <v>0.05051774541453356</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>-0.03508844210864503</v>
+      </c>
+      <c r="G63">
+        <v>-0.04930191678239768</v>
+      </c>
+      <c r="H63">
+        <v>0.00474131984338495</v>
+      </c>
+      <c r="I63">
+        <v>0.02737406305187654</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>0.05965900799324109</v>
+        <v>0.05613369107024332</v>
       </c>
       <c r="C64">
-        <v>0.01647031251035471</v>
+        <v>-0.0369263644905299</v>
       </c>
       <c r="D64">
-        <v>-0.03798719326150298</v>
+        <v>0.00856253905158276</v>
       </c>
       <c r="E64">
-        <v>-0.0306682029395849</v>
+        <v>-0.01899128717090989</v>
       </c>
       <c r="F64">
-        <v>0.04010503304100461</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>-0.0414282689343818</v>
+      </c>
+      <c r="G64">
+        <v>-0.03516205461716926</v>
+      </c>
+      <c r="H64">
+        <v>-0.05365294178294724</v>
+      </c>
+      <c r="I64">
+        <v>0.04245512302736268</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>0.0287492041082255</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>-0.01191349783022194</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>0.003783222102892187</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>-0.0062617263628979</v>
       </c>
       <c r="F65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>-0.002336228926233882</v>
+      </c>
+      <c r="G65">
+        <v>0.02767358423915194</v>
+      </c>
+      <c r="H65">
+        <v>0.01230696108618731</v>
+      </c>
+      <c r="I65">
+        <v>0.004172664714666523</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>0.07497540296591403</v>
+        <v>0.06473290275606156</v>
       </c>
       <c r="C66">
-        <v>0.01111661397453344</v>
+        <v>-0.05877424719051038</v>
       </c>
       <c r="D66">
-        <v>-0.05696193168573454</v>
+        <v>-0.01569598734262533</v>
       </c>
       <c r="E66">
-        <v>-0.0002456747432848294</v>
+        <v>-0.04292056154296214</v>
       </c>
       <c r="F66">
-        <v>0.07897411270132576</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>-0.06884336946778151</v>
+      </c>
+      <c r="G66">
+        <v>0.01165479574590806</v>
+      </c>
+      <c r="H66">
+        <v>-0.009810511807459423</v>
+      </c>
+      <c r="I66">
+        <v>0.06189203896204816</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>0.05219278695579375</v>
+        <v>0.04845961986923705</v>
       </c>
       <c r="C67">
-        <v>-0.01404913968241168</v>
+        <v>0.00298741087062281</v>
       </c>
       <c r="D67">
-        <v>0.001131859058279029</v>
+        <v>-0.002377455044889231</v>
       </c>
       <c r="E67">
-        <v>-0.004647631567120531</v>
+        <v>-0.006925572357996287</v>
       </c>
       <c r="F67">
-        <v>0.02508550277078675</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>-0.03968825294304505</v>
+      </c>
+      <c r="G67">
+        <v>0.001649324833028027</v>
+      </c>
+      <c r="H67">
+        <v>-0.04505968206035939</v>
+      </c>
+      <c r="I67">
+        <v>-0.01492091197691092</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>0.05730243040207185</v>
+        <v>0.06846528680168415</v>
       </c>
       <c r="C68">
-        <v>-0.183755633219108</v>
+        <v>0.2413285823492508</v>
       </c>
       <c r="D68">
-        <v>0.1691391917177821</v>
+        <v>-0.01224675656173573</v>
       </c>
       <c r="E68">
-        <v>0.03968807872751943</v>
+        <v>0.02707368567319614</v>
       </c>
       <c r="F68">
-        <v>0.03204708025285685</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>-0.03748783582288368</v>
+      </c>
+      <c r="G68">
+        <v>-0.03174960673709341</v>
+      </c>
+      <c r="H68">
+        <v>0.01718568760691284</v>
+      </c>
+      <c r="I68">
+        <v>-0.001836724571805456</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>0.07605782128447365</v>
+        <v>0.07001288927449976</v>
       </c>
       <c r="C69">
-        <v>-0.005751398998172929</v>
+        <v>-0.02231145104018928</v>
       </c>
       <c r="D69">
-        <v>-0.02886468911648086</v>
+        <v>-0.007991621101260853</v>
       </c>
       <c r="E69">
-        <v>0.001126896576840148</v>
+        <v>-0.02939900510832984</v>
       </c>
       <c r="F69">
-        <v>-0.008169275112141206</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>0.001317258720969026</v>
+      </c>
+      <c r="G69">
+        <v>-0.04442851659135032</v>
+      </c>
+      <c r="H69">
+        <v>-0.01233704128874614</v>
+      </c>
+      <c r="I69">
+        <v>0.01188337609497054</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2727,251 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>0.05351340176479433</v>
+        <v>0.0639677268038725</v>
       </c>
       <c r="C71">
-        <v>-0.2237150593051337</v>
+        <v>0.2656882928980828</v>
       </c>
       <c r="D71">
-        <v>0.1978514482843365</v>
+        <v>-0.0140938323477477</v>
       </c>
       <c r="E71">
-        <v>0.07617523693401618</v>
+        <v>0.03997209577833356</v>
       </c>
       <c r="F71">
-        <v>0.05929632071333886</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>-0.0620486018770537</v>
+      </c>
+      <c r="G71">
+        <v>-0.03727322953788509</v>
+      </c>
+      <c r="H71">
+        <v>-0.01066221892546481</v>
+      </c>
+      <c r="I71">
+        <v>0.01852561465417276</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>0.134116754172736</v>
+        <v>0.1338155720557853</v>
       </c>
       <c r="C72">
-        <v>-0.0466556271710192</v>
+        <v>-0.0394708077374973</v>
       </c>
       <c r="D72">
-        <v>-0.0452552606418713</v>
+        <v>-0.01261316183005282</v>
       </c>
       <c r="E72">
-        <v>0.003047573111118132</v>
+        <v>-0.0730551435000547</v>
       </c>
       <c r="F72">
-        <v>0.07510289044246685</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>-0.07554867218971142</v>
+      </c>
+      <c r="G72">
+        <v>0.09063166693139579</v>
+      </c>
+      <c r="H72">
+        <v>0.004559696816075053</v>
+      </c>
+      <c r="I72">
+        <v>-0.1345807921349762</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>0.2744617215311091</v>
+        <v>0.2725992698955221</v>
       </c>
       <c r="C73">
-        <v>-0.1129571644366464</v>
+        <v>0.08230508823702573</v>
       </c>
       <c r="D73">
-        <v>0.09679061922535055</v>
+        <v>-0.0908811644332002</v>
       </c>
       <c r="E73">
-        <v>0.1194965527440199</v>
+        <v>0.03738124003215674</v>
       </c>
       <c r="F73">
-        <v>0.2157459546460197</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>-0.2370005919378864</v>
+      </c>
+      <c r="G73">
+        <v>0.5503371516601121</v>
+      </c>
+      <c r="H73">
+        <v>-0.04766975952949741</v>
+      </c>
+      <c r="I73">
+        <v>-0.01251906895222889</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>0.1514970841889755</v>
+        <v>0.1485514120384431</v>
       </c>
       <c r="C74">
-        <v>-0.003781510577674802</v>
+        <v>-0.04343482422260218</v>
       </c>
       <c r="D74">
-        <v>-0.04114835244489416</v>
+        <v>-0.01356657645469535</v>
       </c>
       <c r="E74">
-        <v>0.004084627730928412</v>
+        <v>-0.04748475858491901</v>
       </c>
       <c r="F74">
-        <v>-0.04712850217993552</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>0.07315587084407897</v>
+      </c>
+      <c r="G74">
+        <v>0.01468464655205364</v>
+      </c>
+      <c r="H74">
+        <v>0.0209985587663967</v>
+      </c>
+      <c r="I74">
+        <v>0.07972321406253589</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>0.2316151264641405</v>
+        <v>0.2512913715914594</v>
       </c>
       <c r="C75">
-        <v>-0.04099777318004715</v>
+        <v>-0.04154195521576191</v>
       </c>
       <c r="D75">
-        <v>-0.08541682519604409</v>
+        <v>-0.03330982714876907</v>
       </c>
       <c r="E75">
-        <v>0.01241851299728714</v>
+        <v>-0.1116457461606545</v>
       </c>
       <c r="F75">
-        <v>-0.1478154046470963</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>0.1508116383874999</v>
+      </c>
+      <c r="G75">
+        <v>-0.009275928273596303</v>
+      </c>
+      <c r="H75">
+        <v>-0.007822945720302055</v>
+      </c>
+      <c r="I75">
+        <v>0.0197916779999752</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>0.2552652893828185</v>
+        <v>0.2636310818624373</v>
       </c>
       <c r="C76">
-        <v>-0.07584125271778609</v>
+        <v>-0.03264248100964722</v>
       </c>
       <c r="D76">
-        <v>-0.07227799511761103</v>
+        <v>0.005521299426893921</v>
       </c>
       <c r="E76">
-        <v>-0.05511263412571624</v>
+        <v>-0.1330861055817842</v>
       </c>
       <c r="F76">
-        <v>-0.1419881996841059</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>0.1946563102743493</v>
+      </c>
+      <c r="G76">
+        <v>-0.001762069692676776</v>
+      </c>
+      <c r="H76">
+        <v>0.07980474270840401</v>
+      </c>
+      <c r="I76">
+        <v>0.02644239018973862</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>0.1380666083272446</v>
+        <v>0.1153537078902422</v>
       </c>
       <c r="C77">
-        <v>0.06463041261849371</v>
+        <v>-0.07281194416228787</v>
       </c>
       <c r="D77">
-        <v>-0.01833897324251521</v>
+        <v>-0.01348772361826282</v>
       </c>
       <c r="E77">
-        <v>0.01872081474560524</v>
+        <v>0.0478699197064324</v>
       </c>
       <c r="F77">
-        <v>0.1750331001592958</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>-0.1769011897500158</v>
+      </c>
+      <c r="G77">
+        <v>-0.2159752053397566</v>
+      </c>
+      <c r="H77">
+        <v>0.05896704969715613</v>
+      </c>
+      <c r="I77">
+        <v>0.2147992207279861</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>0.08970259834431055</v>
+        <v>0.06777996042611333</v>
       </c>
       <c r="C78">
-        <v>0.05466359849537443</v>
+        <v>-0.06936443431937687</v>
       </c>
       <c r="D78">
-        <v>-0.04972722949349616</v>
+        <v>-0.001634530576269105</v>
       </c>
       <c r="E78">
-        <v>-0.004267481290043017</v>
+        <v>-0.01039596741076074</v>
       </c>
       <c r="F78">
-        <v>0.05236907574824066</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>-0.0760992464285381</v>
+      </c>
+      <c r="G78">
+        <v>-0.02283622948037323</v>
+      </c>
+      <c r="H78">
+        <v>-0.01660134493685944</v>
+      </c>
+      <c r="I78">
+        <v>0.03249604997783809</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,50 +2988,77 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>0.1157229865353298</v>
+        <v>0.1493790673974702</v>
       </c>
       <c r="C80">
-        <v>0.07657147471958428</v>
+        <v>0.01487942546306595</v>
       </c>
       <c r="D80">
-        <v>0.2748680943335519</v>
+        <v>0.9751251197043285</v>
       </c>
       <c r="E80">
-        <v>-0.9260123481985678</v>
+        <v>0.04647141161418654</v>
       </c>
       <c r="F80">
-        <v>0.06621986701884218</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>-0.05210254233073223</v>
+      </c>
+      <c r="G80">
+        <v>0.04353457355905281</v>
+      </c>
+      <c r="H80">
+        <v>-0.04393729139963644</v>
+      </c>
+      <c r="I80">
+        <v>-0.08409406480430194</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>0.1508881153795573</v>
+        <v>0.1808335982823513</v>
       </c>
       <c r="C81">
-        <v>-0.03784454874124603</v>
+        <v>-0.02241017902157318</v>
       </c>
       <c r="D81">
-        <v>-0.05032890047407067</v>
+        <v>-0.008052769785895501</v>
       </c>
       <c r="E81">
-        <v>-0.01771356760868701</v>
+        <v>-0.09015597968351821</v>
       </c>
       <c r="F81">
-        <v>-0.1718026756991782</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>0.1585528548060681</v>
+      </c>
+      <c r="G81">
+        <v>-0.02385267735892493</v>
+      </c>
+      <c r="H81">
+        <v>0.03553527097433938</v>
+      </c>
+      <c r="I81">
+        <v>-0.01253421536422906</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2337,30 +3075,48 @@
       <c r="F82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>0.08270699476896971</v>
+        <v>0.06348535801078052</v>
       </c>
       <c r="C83">
-        <v>0.08059242439920027</v>
+        <v>-0.0531506890276825</v>
       </c>
       <c r="D83">
-        <v>-0.03184472132236952</v>
+        <v>-0.01256127769597408</v>
       </c>
       <c r="E83">
-        <v>0.01794672462595102</v>
+        <v>0.02186050931151689</v>
       </c>
       <c r="F83">
-        <v>0.0177733330155546</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>-0.04748689807420597</v>
+      </c>
+      <c r="G83">
+        <v>-0.0481507220810163</v>
+      </c>
+      <c r="H83">
+        <v>-0.05055119757029333</v>
+      </c>
+      <c r="I83">
+        <v>0.04599813005905536</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +3133,338 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>0.2437958566292881</v>
+        <v>0.2521752117565173</v>
       </c>
       <c r="C85">
-        <v>-0.0021575846012077</v>
+        <v>-0.07376274896613745</v>
       </c>
       <c r="D85">
-        <v>-0.09508885230226852</v>
+        <v>-0.01480595044148236</v>
       </c>
       <c r="E85">
-        <v>-0.05282658658262784</v>
+        <v>-0.1068789244975661</v>
       </c>
       <c r="F85">
-        <v>-0.1535721407088025</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>0.188151260801403</v>
+      </c>
+      <c r="G85">
+        <v>-0.05091930247688818</v>
+      </c>
+      <c r="H85">
+        <v>0.03784422271647463</v>
+      </c>
+      <c r="I85">
+        <v>0.04913964092543525</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>0.03916986315178749</v>
+        <v>0.02658047676295819</v>
       </c>
       <c r="C86">
-        <v>0.0358101732074742</v>
+        <v>-0.05294745275140383</v>
       </c>
       <c r="D86">
-        <v>-0.05060776836446212</v>
+        <v>-0.004927631638525654</v>
       </c>
       <c r="E86">
-        <v>0.007861983073758239</v>
+        <v>-0.01209850494458461</v>
       </c>
       <c r="F86">
-        <v>0.0881079264788546</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>-0.08741636130932413</v>
+      </c>
+      <c r="G86">
+        <v>-0.0526040814755533</v>
+      </c>
+      <c r="H86">
+        <v>-0.004910851054259021</v>
+      </c>
+      <c r="I86">
+        <v>0.06367895607358515</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>0.02086853400038537</v>
+        <v>0.0262978104935457</v>
       </c>
       <c r="C87">
-        <v>-0.02899430824374359</v>
+        <v>0.007144216416045137</v>
       </c>
       <c r="D87">
-        <v>0.02620318193073614</v>
+        <v>0.003261690270026763</v>
       </c>
       <c r="E87">
-        <v>0.008348787702866477</v>
+        <v>0.002004690181124251</v>
       </c>
       <c r="F87">
-        <v>0.100209689477756</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>-0.1116457317737452</v>
+      </c>
+      <c r="G87">
+        <v>-0.009898541291472556</v>
+      </c>
+      <c r="H87">
+        <v>0.0151661356100402</v>
+      </c>
+      <c r="I87">
+        <v>0.04681543266894463</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>0.02768026599775462</v>
+        <v>0.0341501194092116</v>
       </c>
       <c r="C88">
-        <v>0.01020330784523472</v>
+        <v>-0.009299172327998399</v>
       </c>
       <c r="D88">
-        <v>-0.02298753764921882</v>
+        <v>0.004633694685266068</v>
       </c>
       <c r="E88">
-        <v>-0.02436682482084049</v>
+        <v>-0.01040925513469593</v>
       </c>
       <c r="F88">
-        <v>-0.01107953230416883</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>0.01248485677340968</v>
+      </c>
+      <c r="G88">
+        <v>-0.03442083398400704</v>
+      </c>
+      <c r="H88">
+        <v>-0.04378188625074849</v>
+      </c>
+      <c r="I88">
+        <v>0.004149301228376504</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>0.07538326553753706</v>
+        <v>0.1051211903402662</v>
       </c>
       <c r="C89">
-        <v>-0.2432053056365769</v>
+        <v>0.3825389383345868</v>
       </c>
       <c r="D89">
-        <v>0.2716315364543834</v>
+        <v>-0.03897850371587155</v>
       </c>
       <c r="E89">
-        <v>0.09571543566135242</v>
+        <v>0.0548351656600586</v>
       </c>
       <c r="F89">
-        <v>0.01968831494171302</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>-0.03859960659338472</v>
+      </c>
+      <c r="G89">
+        <v>-0.1025686939184701</v>
+      </c>
+      <c r="H89">
+        <v>-0.01706206360308317</v>
+      </c>
+      <c r="I89">
+        <v>0.04715426885424658</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>0.05397680904492285</v>
+        <v>0.06681557528436546</v>
       </c>
       <c r="C90">
-        <v>-0.2262225107329549</v>
+        <v>0.3411821378971944</v>
       </c>
       <c r="D90">
-        <v>0.2488550994477783</v>
+        <v>-0.01395184516071072</v>
       </c>
       <c r="E90">
-        <v>0.03286965249182758</v>
+        <v>0.05186736353770985</v>
       </c>
       <c r="F90">
-        <v>0.03766426980578551</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>-0.01825550246223071</v>
+      </c>
+      <c r="G90">
+        <v>-0.08498663073691863</v>
+      </c>
+      <c r="H90">
+        <v>-0.0007847583479136869</v>
+      </c>
+      <c r="I90">
+        <v>0.01328202101858102</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>0.2796812695030798</v>
+        <v>0.2885302526769788</v>
       </c>
       <c r="C91">
-        <v>-0.000509519934331125</v>
+        <v>-0.08282753486876925</v>
       </c>
       <c r="D91">
-        <v>-0.100887346376374</v>
+        <v>-0.02149191979016391</v>
       </c>
       <c r="E91">
-        <v>-0.04053110956852914</v>
+        <v>-0.1016556247770566</v>
       </c>
       <c r="F91">
-        <v>-0.2697681933227155</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>0.2728523207935361</v>
+      </c>
+      <c r="G91">
+        <v>-0.02901053175122519</v>
+      </c>
+      <c r="H91">
+        <v>0.07127712315961043</v>
+      </c>
+      <c r="I91">
+        <v>0.03148677803347946</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>0.0895116205619168</v>
+        <v>0.1441162220726832</v>
       </c>
       <c r="C92">
-        <v>-0.1988374249905083</v>
+        <v>0.3646294540157069</v>
       </c>
       <c r="D92">
-        <v>0.2969997917053888</v>
+        <v>0.001564093375870774</v>
       </c>
       <c r="E92">
-        <v>0.01562847903534514</v>
+        <v>0.08285901417019767</v>
       </c>
       <c r="F92">
-        <v>-0.0543319687379292</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>0.08845562066899972</v>
+      </c>
+      <c r="G92">
+        <v>-0.2979829669399377</v>
+      </c>
+      <c r="H92">
+        <v>0.0522990645206577</v>
+      </c>
+      <c r="I92">
+        <v>-0.04119565350029952</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>0.05195124434058909</v>
+        <v>0.08611543271782647</v>
       </c>
       <c r="C93">
-        <v>-0.259867435614988</v>
+        <v>0.4018779420427098</v>
       </c>
       <c r="D93">
-        <v>0.289489401085836</v>
+        <v>-0.02584197005779994</v>
       </c>
       <c r="E93">
-        <v>0.04613927730392431</v>
+        <v>0.08383780478018173</v>
       </c>
       <c r="F93">
-        <v>-0.03181907427117258</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>0.01319182227839454</v>
+      </c>
+      <c r="G93">
+        <v>-0.04411322347346101</v>
+      </c>
+      <c r="H93">
+        <v>-0.04317385873631387</v>
+      </c>
+      <c r="I93">
+        <v>-0.02590164451732234</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>0.2738789107214004</v>
+        <v>0.3062929527652744</v>
       </c>
       <c r="C94">
-        <v>-0.07883459198999597</v>
+        <v>0.01098749258487029</v>
       </c>
       <c r="D94">
-        <v>0.001581238846427005</v>
+        <v>-0.04342072623655684</v>
       </c>
       <c r="E94">
-        <v>-0.007431378144866328</v>
+        <v>-0.1111033678215795</v>
       </c>
       <c r="F94">
-        <v>-0.2174468752439059</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>0.2630924932957388</v>
+      </c>
+      <c r="G94">
+        <v>-0.03936175431220175</v>
+      </c>
+      <c r="H94">
+        <v>0.2213222464608447</v>
+      </c>
+      <c r="I94">
+        <v>0.02437203659224017</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>0.1652681472983654</v>
+        <v>0.129242827442491</v>
       </c>
       <c r="C95">
-        <v>0.0634271541808991</v>
+        <v>-0.06453115725275614</v>
       </c>
       <c r="D95">
-        <v>-0.06382517297427329</v>
+        <v>-0.08159907523622413</v>
       </c>
       <c r="E95">
-        <v>0.0632694239263361</v>
+        <v>-0.0272117612478077</v>
       </c>
       <c r="F95">
-        <v>-0.4906868124760531</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>0.1053751743165105</v>
+      </c>
+      <c r="G95">
+        <v>-0.1605049483665691</v>
+      </c>
+      <c r="H95">
+        <v>-0.8751194446465318</v>
+      </c>
+      <c r="I95">
+        <v>-0.3157480928064787</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +3481,19 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +3510,48 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>0.2043709351192695</v>
+        <v>0.2088561539545704</v>
       </c>
       <c r="C98">
-        <v>-0.06035422881127728</v>
+        <v>0.06578881455750388</v>
       </c>
       <c r="D98">
-        <v>0.06435105731639061</v>
+        <v>-0.06283969388705078</v>
       </c>
       <c r="E98">
-        <v>0.09388188581605886</v>
+        <v>0.02639122806134885</v>
       </c>
       <c r="F98">
-        <v>0.03938687223176172</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>-0.1449260388469698</v>
+      </c>
+      <c r="G98">
+        <v>0.3926864281660333</v>
+      </c>
+      <c r="H98">
+        <v>-0.06389600786059497</v>
+      </c>
+      <c r="I98">
+        <v>-0.03437506676940272</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +3568,19 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,70 +3597,106 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>0.03092889406419426</v>
+        <v>0.0173272153856522</v>
       </c>
       <c r="C101">
-        <v>0.00575513735094152</v>
+        <v>-0.03359956039210613</v>
       </c>
       <c r="D101">
-        <v>-0.04282146039093212</v>
+        <v>0.002808952264732848</v>
       </c>
       <c r="E101">
-        <v>-0.01683182232855169</v>
+        <v>-0.03634325517571878</v>
       </c>
       <c r="F101">
-        <v>0.02752737865145729</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>-0.07735571707360529</v>
+      </c>
+      <c r="G101">
+        <v>-0.09354873472047162</v>
+      </c>
+      <c r="H101">
+        <v>0.03338114516626235</v>
+      </c>
+      <c r="I101">
+        <v>-0.1345889067406036</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>0.09580878708577255</v>
+        <v>0.1160044101716334</v>
       </c>
       <c r="C102">
-        <v>-0.005532166045003837</v>
+        <v>-0.0330979371741958</v>
       </c>
       <c r="D102">
-        <v>-0.05874790305678974</v>
+        <v>0.002820867478996596</v>
       </c>
       <c r="E102">
-        <v>-0.04121325808797377</v>
+        <v>-0.05290911709841694</v>
       </c>
       <c r="F102">
-        <v>-0.09321370692831447</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>0.1159033356436704</v>
+      </c>
+      <c r="G102">
+        <v>-0.02299323084912295</v>
+      </c>
+      <c r="H102">
+        <v>0.01002001317918327</v>
+      </c>
+      <c r="I102">
+        <v>0.03154803833947457</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B103">
-        <v>0.02005221965158857</v>
+        <v>0.02795345267381714</v>
       </c>
       <c r="C103">
-        <v>0.001120532128698055</v>
+        <v>-0.01314022431745731</v>
       </c>
       <c r="D103">
-        <v>-0.02083478185544008</v>
+        <v>0.00851413213309914</v>
       </c>
       <c r="E103">
-        <v>-0.00874722069111402</v>
+        <v>-0.01870040943457122</v>
       </c>
       <c r="F103">
-        <v>-0.02589905149406448</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>0.02240634326361127</v>
+      </c>
+      <c r="G103">
+        <v>-0.02028534385992968</v>
+      </c>
+      <c r="H103">
+        <v>-0.002826890884044559</v>
+      </c>
+      <c r="I103">
+        <v>0.01312642028955557</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2775,6 +3711,15 @@
         <v>0</v>
       </c>
       <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
